--- a/StructureDefinition-PollyPatient.xlsx
+++ b/StructureDefinition-PollyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-10T17:43:36+08:00</t>
+    <t>2023-05-11T11:08:24+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
